--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadiqunnurayan/Documents/GitHub/Excel-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A496C-BD30-4402-B2BA-8A5A15968915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAE6F77-1510-4A47-946D-85AF89D7DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="7" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -372,11 +372,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,13 +699,13 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -741,7 +740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -769,16 +768,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <f>MAX(G2:G10)</f>
         <v>65000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <f>MIN(G2:G10)</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -807,7 +806,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -836,7 +835,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -865,7 +864,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -894,7 +893,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -923,7 +922,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -952,7 +951,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -981,7 +980,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1026,17 +1025,17 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1404,13 +1403,13 @@
         <v>Kevin.Malone@gmail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H11" t="str">
         <f t="shared" ref="H11:H12" si="2">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1432,13 +1431,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1745,7 +1744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1758,18 +1757,18 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>HR</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2137,12 +2136,12 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2482,13 +2481,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2917,13 +2916,13 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3309,10 +3308,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -3331,13 +3330,13 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>Halpert</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>Beasley</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>Schrute</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>Martin</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>Flenderson</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>Scott</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>Palmer</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>Hudson</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3677,13 +3676,13 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>11/2/2001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>10/3/1999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>7/4/2000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>1/5/2000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>5/6/2001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>5/6/2001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>11/8/2003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>6/9/2002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4066,39 +4065,39 @@
         <v>8/10/2003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -4115,13 +4114,13 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4448,13 +4447,13 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>

--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadiqunnurayan/Documents/GitHub/Excel-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAE6F77-1510-4A47-946D-85AF89D7DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74126281-FA19-3C40-A3AE-A88D9C62D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="7" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -1427,8 +1427,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,6 +1500,14 @@
       <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J10">_xlfn.DAYS(I2:I10, H2:H10)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1529,6 +1537,13 @@
       <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J3">
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="0">NETWORKDAYS(H3,I3)</f>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1558,6 +1573,13 @@
       <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J4">
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1587,6 +1609,13 @@
       <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J5">
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1616,6 +1645,13 @@
       <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J6">
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1645,6 +1681,13 @@
       <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J7">
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1674,6 +1717,13 @@
       <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J8">
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1703,6 +1753,13 @@
       <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J9">
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1731,6 +1788,13 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="J10">
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2542,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2912,8 +2976,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4114,7 +4178,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -4444,7 +4508,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4519,6 +4583,18 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10,"&gt;41000")</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(G2:G10,"&gt;45000", E2:E10,"Male")</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadiqunnurayan/Documents/GitHub/Excel-Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74126281-FA19-3C40-A3AE-A88D9C62D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FAD99-212A-4C9A-8670-9DAC04334780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -699,13 +699,13 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -740,7 +740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -777,7 +777,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -806,7 +806,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -835,7 +835,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -864,7 +864,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -893,7 +893,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -922,7 +922,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -951,7 +951,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -980,7 +980,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1025,17 +1025,17 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>Jim.Halpert@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>Pam.Beasley@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>Dwight.Schrute@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>Angela.Martin@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>Toby.Flenderson@gmail.com</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>Michael.Scott@gmail.com</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>Meredith.Palmer@gmail.com</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>Stanley.Hudson@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1403,13 +1403,13 @@
         <v>Kevin.Malone@gmail.com</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H11" t="str">
         <f t="shared" ref="H11:H12" si="2">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
@@ -1427,17 +1427,17 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1808,7 +1808,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1822,17 +1822,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>HR</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>Salesman</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2200,12 +2200,12 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2545,13 +2545,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2976,17 +2976,17 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3372,10 +3372,10 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -3394,13 +3394,13 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>Halpert</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>Beasley</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>Schrute</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>Martin</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>Flenderson</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>Scott</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>Palmer</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>Hudson</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3737,16 +3737,16 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>11/2/2001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>10/3/1999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>7/4/2000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1/5/2000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>5/6/2001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>5/6/2001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>11/8/2003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>6/9/2002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4129,39 +4129,39 @@
         <v>8/10/2003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -4179,12 +4179,12 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4511,13 +4511,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
